--- a/Resource/excel/store.xlsx
+++ b/Resource/excel/store.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangpeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="store" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -1235,6 +1235,14 @@
   </si>
   <si>
     <t>1|3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiveFriendLiness</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼增加好感度数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1714,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1736,9 +1744,10 @@
     <col min="21" max="21" width="9.5" customWidth="1"/>
     <col min="23" max="23" width="13.5" customWidth="1"/>
     <col min="24" max="24" width="25.75" customWidth="1"/>
+    <col min="26" max="26" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,8 +1820,11 @@
       <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1840,9 +1852,12 @@
       <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:25" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>10001</v>
       </c>
@@ -1914,8 +1929,11 @@
       <c r="Y4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>10002</v>
       </c>
@@ -1987,8 +2005,11 @@
       <c r="Y5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>10003</v>
       </c>
@@ -2060,8 +2081,11 @@
       <c r="Y6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>10004</v>
       </c>
@@ -2137,8 +2161,11 @@
       <c r="Y7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>10005</v>
       </c>
@@ -2210,8 +2237,11 @@
       <c r="Y8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>10006</v>
       </c>
@@ -2279,8 +2309,11 @@
       <c r="Y9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>10007</v>
       </c>
@@ -2348,8 +2381,11 @@
       <c r="Y10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10008</v>
       </c>
@@ -2421,8 +2457,11 @@
       <c r="Y11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10009</v>
       </c>
@@ -2494,8 +2533,11 @@
       <c r="Y12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10010</v>
       </c>
@@ -2567,8 +2609,11 @@
       <c r="Y13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>10011</v>
       </c>
@@ -2640,8 +2685,11 @@
       <c r="Y14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>10012</v>
       </c>
@@ -2713,8 +2761,11 @@
       <c r="Y15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>10013</v>
       </c>
@@ -2786,8 +2837,11 @@
       <c r="Y16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>10014</v>
       </c>
@@ -2859,8 +2913,11 @@
       <c r="Y17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>10015</v>
       </c>
@@ -2932,8 +2989,11 @@
       <c r="Y18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>10016</v>
       </c>
@@ -3005,8 +3065,11 @@
       <c r="Y19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>10017</v>
       </c>
@@ -3078,8 +3141,11 @@
       <c r="Y20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>10018</v>
       </c>
@@ -3153,8 +3219,11 @@
       <c r="Y21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>10019</v>
       </c>
@@ -3226,8 +3295,11 @@
       <c r="Y22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>10020</v>
       </c>
@@ -3299,8 +3371,11 @@
       <c r="Y23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>10021</v>
       </c>
@@ -3372,8 +3447,11 @@
       <c r="Y24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>10022</v>
       </c>
@@ -3445,8 +3523,11 @@
       <c r="Y25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>10023</v>
       </c>
@@ -3518,8 +3599,11 @@
       <c r="Y26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>10024</v>
       </c>
@@ -3591,8 +3675,11 @@
       <c r="Y27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>10025</v>
       </c>
@@ -3664,8 +3751,11 @@
       <c r="Y28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>10026</v>
       </c>
@@ -3737,8 +3827,11 @@
       <c r="Y29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>10027</v>
       </c>
@@ -3810,8 +3903,11 @@
       <c r="Y30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>10028</v>
       </c>
@@ -3883,8 +3979,11 @@
       <c r="Y31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>10029</v>
       </c>
@@ -3956,8 +4055,11 @@
       <c r="Y32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>10030</v>
       </c>
@@ -4029,8 +4131,11 @@
       <c r="Y33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>10031</v>
       </c>
@@ -4104,8 +4209,11 @@
       <c r="Y34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>10032</v>
       </c>
@@ -4177,8 +4285,11 @@
       <c r="Y35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>10033</v>
       </c>
@@ -4250,8 +4361,11 @@
       <c r="Y36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>10034</v>
       </c>
@@ -4323,8 +4437,11 @@
       <c r="Y37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>10035</v>
       </c>
@@ -4396,8 +4513,11 @@
       <c r="Y38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>10036</v>
       </c>
@@ -4469,8 +4589,11 @@
       <c r="Y39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>10037</v>
       </c>
@@ -4542,8 +4665,11 @@
       <c r="Y40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>10038</v>
       </c>
@@ -4615,8 +4741,11 @@
       <c r="Y41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>10039</v>
       </c>
@@ -4688,8 +4817,11 @@
       <c r="Y42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>10040</v>
       </c>
@@ -4761,8 +4893,11 @@
       <c r="Y43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>10041</v>
       </c>
@@ -4834,8 +4969,11 @@
       <c r="Y44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>10042</v>
       </c>
@@ -4907,8 +5045,11 @@
       <c r="Y45" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>10043</v>
       </c>
@@ -4980,8 +5121,11 @@
       <c r="Y46" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>10044</v>
       </c>
@@ -5053,8 +5197,11 @@
       <c r="Y47" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>10045</v>
       </c>
@@ -5126,8 +5273,11 @@
       <c r="Y48" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>10046</v>
       </c>
@@ -5199,8 +5349,11 @@
       <c r="Y49" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>10047</v>
       </c>
@@ -5274,8 +5427,11 @@
       <c r="Y50" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>10048</v>
       </c>
@@ -5347,8 +5503,11 @@
       <c r="Y51" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>10049</v>
       </c>
@@ -5420,8 +5579,11 @@
       <c r="Y52" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>10050</v>
       </c>
@@ -5493,8 +5655,11 @@
       <c r="Y53" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>10051</v>
       </c>
@@ -5566,8 +5731,11 @@
       <c r="Y54" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>10052</v>
       </c>
@@ -5639,8 +5807,11 @@
       <c r="Y55" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>10053</v>
       </c>
@@ -5712,8 +5883,11 @@
       <c r="Y56" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>10054</v>
       </c>
@@ -5785,8 +5959,11 @@
       <c r="Y57" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>10055</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="Y58" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>10056</v>
       </c>
@@ -5931,8 +6111,11 @@
       <c r="Y59" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>10057</v>
       </c>
@@ -6004,8 +6187,11 @@
       <c r="Y60" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>10058</v>
       </c>
@@ -6078,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>10059</v>
       </c>
@@ -6151,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>10060</v>
       </c>
@@ -6224,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>10061</v>
       </c>

--- a/Resource/excel/store.xlsx
+++ b/Resource/excel/store.xlsx
@@ -214,14 +214,14 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>0 不限购
-1 每日限购
-2 每周限购
-3 每月限购
-4 永久限购
+          <t xml:space="preserve">
+不填 不限购
+dailystore  每日限购
+weeklystore 每周限购
+monthstore  每月限购
+foreverstore 永久限购
 如:
-0
-1:10 每日限购10次</t>
+dailystore,10 每日限购10次</t>
         </r>
       </text>
     </comment>
@@ -335,7 +335,7 @@
     <t>money=[{"money":"68"}]|diamon=[{"diamon":"10"}]</t>
   </si>
   <si>
-    <t>1,10</t>
+    <t>dailystore,10</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1357,8 @@
   <sheetPr/>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1372,7 +1372,7 @@
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
     <col min="10" max="10" width="45.25" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1472,9 +1472,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="5">
         <v>0</v>
       </c>

--- a/Resource/excel/store.xlsx
+++ b/Resource/excel/store.xlsx
@@ -21,7 +21,7 @@
     <author>张鹏</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2">
+    <comment ref="J1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,14 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,9 +404,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +426,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -434,15 +441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,9 +473,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,7 +489,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,16 +511,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,19 +552,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,25 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,55 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,67 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,23 +764,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,25 +806,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,13 +829,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,10 +864,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,16 +876,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,115 +894,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,1190 +1374,1111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="45.25" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="45.25" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="45.25" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="2:12">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="2:12">
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="13.5" spans="8:9">
+    <row r="3" s="3" customFormat="1" ht="13.5" spans="7:8">
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:12">
+    </row>
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="9">
         <v>10001</v>
       </c>
       <c r="B4" s="9">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="9">
         <v>1</v>
       </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A5" s="9">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A5" s="9">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12">
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="1:12">
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="1:12">
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="1:12">
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="1:12">
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12">
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12">
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+      <c r="G69" s="13"/>
       <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12">
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-    </row>
-    <row r="71" spans="1:12">
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12">
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
+      <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12">
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-    </row>
-    <row r="74" spans="1:12">
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="1:12">
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="1:12">
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="1:12">
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="G77" s="13"/>
       <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-    </row>
-    <row r="78" spans="1:12">
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
